--- a/整合結果/自由時報_財經/excel_by_week/2025_W22.xlsx
+++ b/整合結果/自由時報_財經/excel_by_week/2025_W22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,32 +453,423 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0050一拆四！ 最後買進日期6/10</t>
+          <t>育兒家庭看過來 今年報稅幼兒扣除額加碼省更多</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5060744</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5054442</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>錢包應放多少現金？聯準會最新數據出爐 專家建議這個數</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5054513</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>美國關稅衝擊 購屋意願探將近1年新低</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5054693</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>川普1句話、黃金遭猛烈拋售！市場緊盯最新支撐價位</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5054823</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>機器人理財資產規模年增近5成 兆豐銀再推ETF台幣信託</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5055243</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>股匯市不同調 投顧：散戶信心有待恢復</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5055295</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>保誠人壽調查 44.8％女性投入退休金規劃</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5055406</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>金錢能買到幸福！專家：花錢在「這8件事物上」別內疚</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5055500</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>央行嚴控土建融 去年Q4全國展期住宅數創16年來單季新低</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5055878</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>合庫銀暫停受理他行土建融整批分戶房貸 對房市前景看法保守</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5057707</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>彰銀首季房貸新承作量季減3成 房市量縮、房價進入震盪整理</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5057541</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1月全國房貸、信貸「雙貸族」創新高 突破39萬人</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5057226</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>黃金還能重破天價？外媒「3劇本」全說了</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5056778</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>房市進入個案表現階段 中和大型預售案Q1賣掉491戶</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5057029</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>房市「兩好兩壞」 華固：下半年趨於穩定 北士科建案調漲3-5％</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5056993</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>50歲大叔一時興起做副業 結果年收入多出1300萬元</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5056761</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>黃金陷3300美元保衛戰 挑戰「這價位」有可能？</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5056776</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>南港機廠社會住宅1區招租開跑 月租1.5萬元起</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5058368</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>元大台灣高息低波季配息1.1元 年化配息率8.5％</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5058565</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>黃金下跌進盤整期 高點下殺後專家認了「1事」</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5059950</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>黃金「這時」將飆破8900美元！投資機構震撼預測全說了</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5060114</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>2025-06-01</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0050一拆四！ 最後買進日期6/10</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5060744</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>無畏「1拆4」！0050受益人數與規模同寫歷史新高</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5060743</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0050一拆四！ 最後買進日期6/10</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5060744</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>無畏「1拆4」！0050受益人數與規模同寫歷史新高</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>https://ec.ltn.com.tw/article/breakingnews/5060743</t>
         </is>
